--- a/scripts/valgrind_logs/data.xlsx
+++ b/scripts/valgrind_logs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolWork\FYP\Compiler Stuff\Code\graphiC\scripts\valgrind_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76AD014-9953-4D32-BAFE-7B132DADBF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3226ED52-2DCC-497B-AB01-9638D3102282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-86" yWindow="0" windowWidth="11143" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Generational</t>
   </si>
@@ -123,7 +123,25 @@
     <t>0.003403/0.000000</t>
   </si>
   <si>
-    <t>4-</t>
+    <t>4-write_barrier.txt</t>
+  </si>
+  <si>
+    <t>0.101839/0.000000</t>
+  </si>
+  <si>
+    <t>0.106112/0.000000</t>
+  </si>
+  <si>
+    <t>0.105315/0.000000</t>
+  </si>
+  <si>
+    <t>0.891102/0.000000</t>
+  </si>
+  <si>
+    <t>0.861264/0.000000</t>
+  </si>
+  <si>
+    <t>0.852867/0.000000</t>
   </si>
 </sst>
 </file>
@@ -168,13 +186,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -494,32 +512,32 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
@@ -587,7 +605,7 @@
       <c r="H10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -617,6 +635,24 @@
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/valgrind_logs/data.xlsx
+++ b/scripts/valgrind_logs/data.xlsx
@@ -8,24 +8,57 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolWork\FYP\Compiler Stuff\Code\graphiC\scripts\valgrind_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3226ED52-2DCC-497B-AB01-9638D3102282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275570D9-CCEC-422A-9384-A6119B2C75F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86" yWindow="0" windowWidth="11143" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>Generational</t>
   </si>
@@ -142,6 +175,96 @@
   </si>
   <si>
     <t>0.852867/0.000000</t>
+  </si>
+  <si>
+    <t>Mark-And-Compact</t>
+  </si>
+  <si>
+    <t>0.05628/0</t>
+  </si>
+  <si>
+    <t>0.006323/0</t>
+  </si>
+  <si>
+    <t>([0-9]|\.)*</t>
+  </si>
+  <si>
+    <t>1.2/3.5</t>
+  </si>
+  <si>
+    <t>3.8/0.0</t>
+  </si>
+  <si>
+    <t>0.036583</t>
+  </si>
+  <si>
+    <t>0.004333</t>
+  </si>
+  <si>
+    <t>0.037513</t>
+  </si>
+  <si>
+    <t>0.003929</t>
+  </si>
+  <si>
+    <t>0.038039</t>
+  </si>
+  <si>
+    <t>0.004947</t>
+  </si>
+  <si>
+    <t>0.034911</t>
+  </si>
+  <si>
+    <t>0.038409</t>
+  </si>
+  <si>
+    <t>0.036132</t>
+  </si>
+  <si>
+    <t>0.036037</t>
+  </si>
+  <si>
+    <t>0.034281</t>
+  </si>
+  <si>
+    <t>0.036072</t>
+  </si>
+  <si>
+    <t>0.015667</t>
+  </si>
+  <si>
+    <t>0.001779</t>
+  </si>
+  <si>
+    <t>0.016214</t>
+  </si>
+  <si>
+    <t>0.001858</t>
+  </si>
+  <si>
+    <t>0.015726</t>
+  </si>
+  <si>
+    <t>0.001874</t>
+  </si>
+  <si>
+    <t>0.727890</t>
+  </si>
+  <si>
+    <t>0.057301</t>
+  </si>
+  <si>
+    <t>0.734171</t>
+  </si>
+  <si>
+    <t>0.716103</t>
+  </si>
+  <si>
+    <t>0.055037</t>
+  </si>
+  <si>
+    <t>0.057584</t>
   </si>
 </sst>
 </file>
@@ -188,10 +311,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K12"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -488,7 +611,15 @@
     <col min="9" max="9" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -511,36 +642,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -560,7 +691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -573,17 +704,17 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9">
-        <v>6.3229999999999996E-3</v>
+      <c r="F9" t="s">
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="H9">
-        <v>5.6279999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -609,7 +740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -632,7 +763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -655,13 +786,176 @@
         <v>35</v>
       </c>
     </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D26" t="e" cm="1">
+        <f t="array" ref="D26">VALUE(_xlfn.REGEXEXTRACT(D10, "([\d.]+)")) + VALUE(_xlfn.REGEXEXTRACT(D10, "/([\d.]+)"))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D27" t="e">
+        <f>(LEFT(D10, FIND("/", D10)-1) + MID(D10, FIND("/", D10)+1, LEN(D10))) / (LEFT(D22, FIND("/", D22)-1) + MID(D22, FIND("/", D22)+1, LEN(D22)))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
